--- a/testdata/test2.xlsx
+++ b/testdata/test2.xlsx
@@ -22,7 +22,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$-409]mmmm\-yy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -201,8 +201,14 @@
       <family val="2"/>
       <sz val="10"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -263,8 +269,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -440,6 +451,20 @@
         <color theme="0" tint="-0.249549999833107"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -449,7 +474,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -676,6 +701,12 @@
     </xf>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1047,7 +1078,9 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="29" t="n"/>
-      <c r="B1" s="26" t="n"/>
+      <c r="B1" s="26" t="n">
+        <v>0</v>
+      </c>
       <c r="C1" s="26" t="n"/>
       <c r="D1" s="27" t="n"/>
       <c r="E1" s="27" t="n"/>
@@ -4778,16 +4811,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1" workbookViewId="0">
       <selection pane="topLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="61" t="n">
+    <row r="1" ht="16" customHeight="1">
+      <c r="A1" s="81" t="n">
         <v>3</v>
       </c>
       <c r="B1" s="61" t="n">
@@ -4810,7 +4846,7 @@
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" s="61" t="n">
+      <c r="A2" s="81" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="61" t="n">
@@ -4838,7 +4874,7 @@
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="61" t="n">
+      <c r="A3" s="81" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="61" t="n">
@@ -4859,7 +4895,7 @@
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="61" t="n">
+      <c r="A4" s="81" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="61" t="n">
@@ -4968,7 +5004,7 @@
           <t>ee</t>
         </is>
       </c>
-      <c r="F9" s="62" t="inlineStr">
+      <c r="F9" s="82" t="inlineStr">
         <is>
           <t>c</t>
         </is>
@@ -5034,9 +5070,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
